--- a/data/trans_dic/P1419-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1419-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.07704685931751705</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1333243296345355</v>
+        <v>0.1333243296345354</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03955703836038316</v>
+        <v>0.03856169647928247</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01395830871061808</v>
+        <v>0.01451414791292832</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01487717360025578</v>
+        <v>0.01533838021996478</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05138069908646536</v>
+        <v>0.05089868698896282</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1548415260779317</v>
+        <v>0.1547352117945466</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.125753758458199</v>
+        <v>0.1253366762493663</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09826126173309424</v>
+        <v>0.09631392552097773</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1611501082260093</v>
+        <v>0.1596569613778686</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1079758371114187</v>
+        <v>0.1069325974641047</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08069976810324064</v>
+        <v>0.0808399919654174</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06491894434461137</v>
+        <v>0.06397560546182665</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.119556372164536</v>
+        <v>0.1197808031825434</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06727816767722765</v>
+        <v>0.06677343074630307</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03371918492519211</v>
+        <v>0.03428493111452385</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03555982219882605</v>
+        <v>0.03698365889578878</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09049356964860863</v>
+        <v>0.09098537602160446</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.195251701680364</v>
+        <v>0.1955885221820411</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1645038804920323</v>
+        <v>0.166536648206109</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1414406096985005</v>
+        <v>0.1387349309624484</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2030253870700536</v>
+        <v>0.2005682085896649</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1336780761765714</v>
+        <v>0.1336020171048784</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1061321160050443</v>
+        <v>0.1060363848877953</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09117304427515191</v>
+        <v>0.0919485566845414</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1513062934852587</v>
+        <v>0.148688999320185</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.01334350710672512</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.034925696489052</v>
+        <v>0.03492569648905199</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.06626976960414799</v>
@@ -821,7 +821,7 @@
         <v>0.04335240996618812</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.09540953579590844</v>
+        <v>0.09540953579590843</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.04260336851702607</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01441758901198958</v>
+        <v>0.01414625683762531</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004915359368511858</v>
+        <v>0.004832421541868469</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008653315783047911</v>
+        <v>0.009286603098530896</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02760891859185673</v>
+        <v>0.02801221972321411</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05356499859106525</v>
+        <v>0.05493263289980289</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04214105953207235</v>
+        <v>0.04224275019949963</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03504506399551236</v>
+        <v>0.03421945565960182</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08538231520172006</v>
+        <v>0.08651662907233171</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0360642540068755</v>
+        <v>0.0363082765019679</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02393931585102639</v>
+        <v>0.02373942410059997</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02268726743235144</v>
+        <v>0.02291167358122055</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05879067910079749</v>
+        <v>0.05825736590539015</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0281806045054904</v>
+        <v>0.02897971305563169</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01431185221036532</v>
+        <v>0.01406519446246091</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01927582187940775</v>
+        <v>0.02028749172037236</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04261563719306843</v>
+        <v>0.04311375605906041</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07927371167169876</v>
+        <v>0.08097673805620553</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06472252472790045</v>
+        <v>0.06527256772323747</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0531629334599102</v>
+        <v>0.05364352498857493</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1066895527500776</v>
+        <v>0.106421016963332</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05041620308113196</v>
+        <v>0.05037452170605675</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03611683232009558</v>
+        <v>0.03557171986942143</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03384582953343593</v>
+        <v>0.03425436762440203</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07135175988369939</v>
+        <v>0.07136430430169202</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.02845692614984068</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.06744192283718245</v>
+        <v>0.06744192283718246</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03983915746670057</v>
@@ -969,7 +969,7 @@
         <v>0.02001727391678924</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.04680084152800641</v>
+        <v>0.04680084152800642</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01110024718208068</v>
+        <v>0.0113820705321917</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003696266972247498</v>
+        <v>0.003745354746911581</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01655214759007035</v>
+        <v>0.01610182361589245</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03994064763624411</v>
+        <v>0.03927760237245059</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01893954306421766</v>
+        <v>0.01783463419207234</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01564145922554337</v>
+        <v>0.01536793766248784</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05374237284656717</v>
+        <v>0.05374044120400141</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02825588833663925</v>
+        <v>0.02900762328285921</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01071368179947036</v>
+        <v>0.01026003319015462</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01210943864203248</v>
+        <v>0.01209185046970022</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03767721772167081</v>
+        <v>0.03766943085449394</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03826183544390374</v>
+        <v>0.03766886922144795</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02157675702762704</v>
+        <v>0.02180374452525093</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02593832234682815</v>
+        <v>0.02550638991945283</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04161848531640053</v>
+        <v>0.0383796593007964</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08419065076335626</v>
+        <v>0.09032778749601782</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05106378833717979</v>
+        <v>0.05135156340269151</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0479723628185002</v>
+        <v>0.04838063618688419</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08324102087947059</v>
+        <v>0.08280141258058786</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05386891858140013</v>
+        <v>0.05502818780131802</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02827466784648141</v>
+        <v>0.02799352430913336</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03201244870253451</v>
+        <v>0.032501771553789</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05733733711243407</v>
+        <v>0.05793389866214885</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.03916206039082208</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07441182869323196</v>
+        <v>0.07441182869323193</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02471005503793902</v>
+        <v>0.02481157632633572</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008433139652832849</v>
+        <v>0.008715432765839307</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01127152078409686</v>
+        <v>0.0113191658717352</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03234849302436396</v>
+        <v>0.03222191990147748</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09702312699098127</v>
+        <v>0.09768768418091697</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07512800433597844</v>
+        <v>0.07554135767179708</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05343659261219801</v>
+        <v>0.05308211866730823</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.10058060592413</v>
+        <v>0.1004849025780213</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06317519645404583</v>
+        <v>0.06355816105474427</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04347694787134415</v>
+        <v>0.04360940790108867</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03415353878509337</v>
+        <v>0.03425018262274616</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06899818201528406</v>
+        <v>0.06990282598105692</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0367167843875673</v>
+        <v>0.03743316686085231</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01656363153479414</v>
+        <v>0.01661971849023281</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02002015478109133</v>
+        <v>0.02035341891871053</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04396022985913166</v>
+        <v>0.04541772264681303</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.119630666628669</v>
+        <v>0.1196260605721394</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09489969314055202</v>
+        <v>0.09434630786276842</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07111619767380614</v>
+        <v>0.0700593053934417</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1169925792133517</v>
+        <v>0.1170072600525512</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07604098589077291</v>
+        <v>0.0756753997284475</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0548636932525905</v>
+        <v>0.05437122630170136</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04430164356828226</v>
+        <v>0.04414773498850913</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0800149184252647</v>
+        <v>0.07980572625112925</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>40812</v>
+        <v>39785</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13604</v>
+        <v>14146</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11223</v>
+        <v>11570</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>29675</v>
+        <v>29396</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>203634</v>
+        <v>203494</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>168233</v>
+        <v>167675</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>97737</v>
+        <v>95800</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>132355</v>
+        <v>131129</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>253401</v>
+        <v>250953</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>186613</v>
+        <v>186938</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>113544</v>
+        <v>111894</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>167242</v>
+        <v>167556</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>69412</v>
+        <v>68892</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>32864</v>
+        <v>33416</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26824</v>
+        <v>27899</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>52264</v>
+        <v>52548</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>256778</v>
+        <v>257221</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>220073</v>
+        <v>222792</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>140685</v>
+        <v>137994</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>166748</v>
+        <v>164730</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>313720</v>
+        <v>313542</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>245424</v>
+        <v>245203</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>159462</v>
+        <v>160819</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>211656</v>
+        <v>207995</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>24415</v>
+        <v>23955</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9654</v>
+        <v>9491</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>17968</v>
+        <v>19283</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>61560</v>
+        <v>62459</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>85044</v>
+        <v>87215</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>73940</v>
+        <v>74119</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>69680</v>
+        <v>68039</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>185224</v>
+        <v>187685</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>118330</v>
+        <v>119131</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>89020</v>
+        <v>88276</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>92217</v>
+        <v>93129</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>258623</v>
+        <v>256277</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>47721</v>
+        <v>49075</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28108</v>
+        <v>27623</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>40024</v>
+        <v>42125</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>95020</v>
+        <v>96131</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>125861</v>
+        <v>128565</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>113562</v>
+        <v>114527</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>105704</v>
+        <v>106659</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>231447</v>
+        <v>230865</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>165420</v>
+        <v>165283</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>134302</v>
+        <v>132275</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>137573</v>
+        <v>139233</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>313880</v>
+        <v>313935</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6121</v>
+        <v>6276</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2021</v>
+        <v>2048</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11778</v>
+        <v>11458</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>19028</v>
+        <v>18712</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8686</v>
+        <v>8180</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8589</v>
+        <v>8439</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>39457</v>
+        <v>39456</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>29042</v>
+        <v>29815</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>10069</v>
+        <v>9643</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>13272</v>
+        <v>13253</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>54473</v>
+        <v>54462</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21098</v>
+        <v>20771</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10382</v>
+        <v>10492</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14185</v>
+        <v>13949</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>29615</v>
+        <v>27310</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>40109</v>
+        <v>43033</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>23419</v>
+        <v>23551</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>26344</v>
+        <v>26568</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>61115</v>
+        <v>60792</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>55368</v>
+        <v>56559</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>26573</v>
+        <v>26309</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>35087</v>
+        <v>35623</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>82897</v>
+        <v>83760</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>80964</v>
+        <v>81296</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>28839</v>
+        <v>29805</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>38071</v>
+        <v>38232</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>113829</v>
+        <v>113383</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>327860</v>
+        <v>330106</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>266781</v>
+        <v>268249</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>188743</v>
+        <v>187491</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>374649</v>
+        <v>374292</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>420478</v>
+        <v>423027</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>303069</v>
+        <v>303993</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>235991</v>
+        <v>236659</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>499801</v>
+        <v>506354</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>120304</v>
+        <v>122651</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>56644</v>
+        <v>56836</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>67620</v>
+        <v>68746</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>154688</v>
+        <v>159817</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>404256</v>
+        <v>404240</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>336991</v>
+        <v>335026</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>251190</v>
+        <v>247456</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>435781</v>
+        <v>435836</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>506109</v>
+        <v>503676</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>382444</v>
+        <v>379011</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>306112</v>
+        <v>305048</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>579603</v>
+        <v>578088</v>
       </c>
     </row>
     <row r="20">
